--- a/Examples/AHP_Ratings_Lunch/carModel_Ratings_Results.xlsx
+++ b/Examples/AHP_Ratings_Lunch/carModel_Ratings_Results.xlsx
@@ -149,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -171,6 +171,7 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="11" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="12" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -550,6 +551,9 @@
     <col width="20" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1198,6 +1202,34 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="15">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H14">
     <cfRule type="dataBar" priority="1">
@@ -1221,6 +1253,27 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="15">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I23">
     <cfRule type="dataBar" priority="1">
@@ -1251,6 +1304,34 @@
         <color rgb="ff0b30b5"/>
       </dataBar>
     </cfRule>
+    <cfRule type="dataBar" priority="15">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:H31">
     <cfRule type="dataBar" priority="1">
@@ -1268,6 +1349,27 @@
       </dataBar>
     </cfRule>
     <cfRule type="dataBar" priority="1">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
+      <dataBar showValue="1">
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="ff0b30b5"/>
+      </dataBar>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
       <dataBar showValue="1">
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1408,7 +1510,7 @@
     <row r="7">
       <c r="A7" s="17" t="inlineStr">
         <is>
-          <t>ESTIMATED RESULTS</t>
+          <t>ESTIMATED TOTALS AND PRIORITIES</t>
         </is>
       </c>
       <c r="B7" s="17" t="inlineStr"/>
@@ -1419,110 +1521,141 @@
       <c r="G7" s="17" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="B9" s="15" t="inlineStr">
+      <c r="B9" s="21" t="n">
+        <v>0.2609430406361969</v>
+      </c>
+      <c r="C9" s="21" t="n">
+        <v>0.1189592698979585</v>
+      </c>
+      <c r="D9" s="21" t="n">
+        <v>0.1689279835267223</v>
+      </c>
+      <c r="E9" s="21" t="n">
+        <v>0.4511697059391224</v>
+      </c>
+      <c r="F9" s="18" t="inlineStr">
+        <is>
+          <t>TOTALS</t>
+        </is>
+      </c>
+      <c r="G9" s="18" t="inlineStr">
+        <is>
+          <t>PRIORITIES</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="21" t="inlineStr">
         <is>
           <t>1Quality</t>
         </is>
       </c>
-      <c r="C9" s="15" t="inlineStr">
+      <c r="C10" s="21" t="inlineStr">
         <is>
           <t>2Price</t>
         </is>
       </c>
-      <c r="D9" s="15" t="inlineStr">
+      <c r="D10" s="21" t="inlineStr">
         <is>
           <t>3Menu</t>
         </is>
       </c>
-      <c r="E9" s="15" t="inlineStr">
+      <c r="E10" s="21" t="inlineStr">
         <is>
           <t>4Speed</t>
         </is>
       </c>
-      <c r="F9" s="18" t="inlineStr">
-        <is>
-          <t>TOTALS</t>
-        </is>
-      </c>
-      <c r="G9" s="18" t="inlineStr">
-        <is>
-          <t>PRIORITIES</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="7" t="n">
-        <v>0.2609430406361969</v>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>0.1189592698979585</v>
-      </c>
-      <c r="D10" s="7" t="n">
-        <v>0.1689279835267223</v>
-      </c>
-      <c r="E10" s="7" t="n">
-        <v>0.4511697059391224</v>
+    </row>
+    <row r="11">
+      <c r="A11" s="15" t="inlineStr">
+        <is>
+          <t>1Panera</t>
+        </is>
+      </c>
+      <c r="B11" s="7">
+        <f>INDEX(rating_scales!I3:I6, MATCH(B2,rating_scales!A3:A6, 0))</f>
+        <v/>
+      </c>
+      <c r="C11" s="7">
+        <f>INDEX(rating_scales!H12:H14, MATCH(C2,rating_scales!A12:A14, 0))</f>
+        <v/>
+      </c>
+      <c r="D11" s="7">
+        <f>INDEX(rating_scales!I20:I23, MATCH(D2,rating_scales!A20:A23, 0))</f>
+        <v/>
+      </c>
+      <c r="E11" s="7">
+        <f>INDEX(rating_scales!H29:H31, MATCH(E2,rating_scales!A29:A31, 0))</f>
+        <v/>
+      </c>
+      <c r="F11" s="19">
+        <f>sumproduct(B11:E11,B9:E9)</f>
+        <v/>
+      </c>
+      <c r="G11" s="20">
+        <f>F11/sum(F11:F13)</f>
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="15" t="inlineStr">
         <is>
-          <t>1Panera</t>
+          <t>2Primanti</t>
         </is>
       </c>
       <c r="B12" s="7">
-        <f>INDEX(rating_scales!I3:I6, MATCH(B2,rating_scales!A3:A6, 0))</f>
+        <f>INDEX(rating_scales!I3:I6, MATCH(B3,rating_scales!A3:A6, 0))</f>
         <v/>
       </c>
       <c r="C12" s="7">
-        <f>INDEX(rating_scales!H12:H14, MATCH(C2,rating_scales!A12:A14, 0))</f>
+        <f>INDEX(rating_scales!H12:H14, MATCH(C3,rating_scales!A12:A14, 0))</f>
         <v/>
       </c>
       <c r="D12" s="7">
-        <f>INDEX(rating_scales!I20:I23, MATCH(D2,rating_scales!A20:A23, 0))</f>
+        <f>INDEX(rating_scales!I20:I23, MATCH(D3,rating_scales!A20:A23, 0))</f>
         <v/>
       </c>
       <c r="E12" s="7">
-        <f>INDEX(rating_scales!H29:H31, MATCH(E2,rating_scales!A29:A31, 0))</f>
+        <f>INDEX(rating_scales!H29:H31, MATCH(E3,rating_scales!A29:A31, 0))</f>
         <v/>
       </c>
       <c r="F12" s="19">
-        <f>sumproduct(B12:E12,B10:E10)</f>
+        <f>sumproduct(B12:E12,B9:E9)</f>
         <v/>
       </c>
       <c r="G12" s="20">
-        <f>F12/sum(F12:F14)</f>
+        <f>F12/sum(F11:F13)</f>
         <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="15" t="inlineStr">
         <is>
-          <t>2Primanti</t>
+          <t>3Subway</t>
         </is>
       </c>
       <c r="B13" s="7">
-        <f>INDEX(rating_scales!I3:I6, MATCH(B3,rating_scales!A3:A6, 0))</f>
+        <f>INDEX(rating_scales!I3:I6, MATCH(B4,rating_scales!A3:A6, 0))</f>
         <v/>
       </c>
       <c r="C13" s="7">
-        <f>INDEX(rating_scales!H12:H14, MATCH(C3,rating_scales!A12:A14, 0))</f>
+        <f>INDEX(rating_scales!H12:H14, MATCH(C4,rating_scales!A12:A14, 0))</f>
         <v/>
       </c>
       <c r="D13" s="7">
-        <f>INDEX(rating_scales!I20:I23, MATCH(D3,rating_scales!A20:A23, 0))</f>
+        <f>INDEX(rating_scales!I20:I23, MATCH(D4,rating_scales!A20:A23, 0))</f>
         <v/>
       </c>
       <c r="E13" s="7">
-        <f>INDEX(rating_scales!H29:H31, MATCH(E3,rating_scales!A29:A31, 0))</f>
+        <f>INDEX(rating_scales!H29:H31, MATCH(E4,rating_scales!A29:A31, 0))</f>
         <v/>
       </c>
       <c r="F13" s="19">
-        <f>sumproduct(B13:E13,B10:E10)</f>
+        <f>sumproduct(B13:E13,B9:E9)</f>
         <v/>
       </c>
       <c r="G13" s="20">
-        <f>F13/sum(F12:F14)</f>
+        <f>F13/sum(F11:F13)</f>
         <v/>
       </c>
     </row>
@@ -1558,7 +1691,43 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="12">
+  <dataValidations count="24">
+    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="C2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="D2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="E2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
     <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>=rating_scales!A3:A6</formula1>
     </dataValidation>
